--- a/data/classifier_test/broad_assets_target_test.xlsx
+++ b/data/classifier_test/broad_assets_target_test.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L221"/>
+  <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44011</v>
+        <v>44018</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -530,18 +530,18 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44018</v>
+        <v>44025</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -550,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44025</v>
+        <v>44032</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -594,16 +594,16 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44032</v>
+        <v>44039</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -638,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -655,19 +655,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44039</v>
+        <v>44046</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44046</v>
+        <v>44053</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -702,28 +702,28 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44053</v>
+        <v>44060</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -743,33 +743,33 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44060</v>
+        <v>44067</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -784,22 +784,22 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -807,25 +807,25 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44067</v>
+        <v>44074</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -845,45 +845,45 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44074</v>
+        <v>44078</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44078</v>
+        <v>44088</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -892,16 +892,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -916,18 +916,18 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -945,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -959,45 +959,45 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44095</v>
+        <v>44102</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44102</v>
+        <v>44109</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -1021,80 +1021,80 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44109</v>
+        <v>44116</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44116</v>
+        <v>44123</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1103,15 +1103,15 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44123</v>
+        <v>44130</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1144,18 +1144,18 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44130</v>
+        <v>44137</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1164,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1182,71 +1182,71 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44137</v>
+        <v>44144</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44151</v>
+        <v>44158</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1281,19 +1281,19 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -1301,28 +1301,28 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44158</v>
+        <v>44165</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1339,16 +1339,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44172</v>
+        <v>44179</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1415,13 +1415,13 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1433,45 +1433,45 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44193</v>
+        <v>44200</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1500,16 +1500,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1524,12 +1524,12 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44200</v>
+        <v>44207</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44207</v>
+        <v>44211</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1576,16 +1576,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1594,18 +1594,18 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44211</v>
+        <v>44221</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -1614,13 +1614,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1629,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44221</v>
+        <v>44228</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1652,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1673,21 +1673,21 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44228</v>
+        <v>44235</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1696,22 +1696,22 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1719,13 +1719,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44235</v>
+        <v>44239</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44239</v>
+        <v>44249</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1775,27 +1775,27 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44249</v>
+        <v>44256</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44256</v>
+        <v>44263</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1845,33 +1845,33 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44263</v>
+        <v>44270</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -1898,80 +1898,80 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -1985,19 +1985,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2012,18 +2012,18 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2056,12 +2056,12 @@
         <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2099,19 +2099,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2123,10 +2123,10 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -2137,31 +2137,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -2190,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -2213,31 +2213,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2246,39 +2246,39 @@
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44340</v>
+        <v>44344</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -2319,15 +2319,15 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44344</v>
+        <v>44354</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -2351,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44354</v>
+        <v>44361</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -2377,33 +2377,33 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44361</v>
+        <v>44368</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -2421,13 +2421,13 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44368</v>
+        <v>44375</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2471,15 +2471,15 @@
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44375</v>
+        <v>44379</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -2494,36 +2494,36 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44379</v>
+        <v>44389</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -2550,12 +2550,12 @@
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2564,13 +2564,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2585,15 +2585,15 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2655,27 +2655,27 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2702,12 +2702,12 @@
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -2716,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -2725,19 +2725,19 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44424</v>
+        <v>44431</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -2754,13 +2754,13 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44431</v>
+        <v>44438</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -2801,57 +2801,57 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44438</v>
+        <v>44442</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>1</v>
@@ -2859,69 +2859,69 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44452</v>
+        <v>44459</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44459</v>
+        <v>44466</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -2944,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2965,15 +2965,15 @@
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -3011,34 +3011,34 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44473</v>
+        <v>44480</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44480</v>
+        <v>44487</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -3076,10 +3076,10 @@
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>1</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44487</v>
+        <v>44494</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -3099,33 +3099,33 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -3134,16 +3134,16 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -3152,56 +3152,56 @@
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44501</v>
+        <v>44508</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44508</v>
+        <v>44515</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -3213,25 +3213,25 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -3239,19 +3239,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44515</v>
+        <v>44522</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3263,45 +3263,45 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -3315,16 +3315,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -3336,24 +3336,24 @@
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44536</v>
+        <v>44543</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -3371,19 +3371,19 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44543</v>
+        <v>44550</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -3403,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3415,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44550</v>
+        <v>44557</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -3441,25 +3441,25 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -3467,13 +3467,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44557</v>
+        <v>44564</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -3482,16 +3482,16 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44564</v>
+        <v>44571</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -3532,18 +3532,18 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44571</v>
+        <v>44575</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -3581,25 +3581,25 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44575</v>
+        <v>44585</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
@@ -3608,10 +3608,10 @@
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>1</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44585</v>
+        <v>44592</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -3628,10 +3628,10 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3640,13 +3640,13 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
@@ -3657,13 +3657,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44592</v>
+        <v>44599</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -3672,22 +3672,22 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
         <v>1</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44599</v>
+        <v>44606</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -3704,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3728,30 +3728,30 @@
         <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44606</v>
+        <v>44610</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44610</v>
+        <v>44620</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -3789,95 +3789,95 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44620</v>
+        <v>44627</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44627</v>
+        <v>44634</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -3885,13 +3885,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44634</v>
+        <v>44641</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44641</v>
+        <v>44648</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -3932,10 +3932,10 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
         <v>1</v>
@@ -3961,13 +3961,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44648</v>
+        <v>44655</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -3999,34 +3999,34 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44655</v>
+        <v>44662</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44662</v>
+        <v>44669</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44669</v>
+        <v>44676</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -4099,13 +4099,13 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44676</v>
+        <v>44683</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -4151,28 +4151,28 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44683</v>
+        <v>44690</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44690</v>
+        <v>44697</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -4198,28 +4198,28 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44697</v>
+        <v>44704</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44704</v>
+        <v>44708</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -4286,62 +4286,62 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44708</v>
+        <v>44718</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44718</v>
+        <v>44725</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -4350,13 +4350,13 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -4365,48 +4365,48 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44725</v>
+        <v>44732</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44732</v>
+        <v>44739</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -4444,10 +4444,10 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44739</v>
+        <v>44743</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -4464,25 +4464,25 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -4493,13 +4493,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44743</v>
+        <v>44753</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -4508,19 +4508,19 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44753</v>
+        <v>44760</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -4540,28 +4540,28 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -4569,10 +4569,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44760</v>
+        <v>44767</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -4587,27 +4587,27 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44767</v>
+        <v>44774</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -4616,10 +4616,10 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -4628,13 +4628,13 @@
         <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
         <v>1</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44774</v>
+        <v>44781</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -4654,10 +4654,10 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -4672,10 +4672,10 @@
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>1</v>
@@ -4683,13 +4683,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44781</v>
+        <v>44788</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -4698,36 +4698,36 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44788</v>
+        <v>44795</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -4736,22 +4736,22 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" t="n">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44795</v>
+        <v>44802</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -4792,18 +4792,18 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44802</v>
+        <v>44806</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -4812,13 +4812,13 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44806</v>
+        <v>44816</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -4873,13 +4873,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44816</v>
+        <v>44823</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -4888,68 +4888,68 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44823</v>
+        <v>44830</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44830</v>
+        <v>44837</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -4982,24 +4982,24 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44837</v>
+        <v>44844</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
         <v>1</v>
@@ -5017,21 +5017,21 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44844</v>
+        <v>44851</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -5040,13 +5040,13 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -5058,24 +5058,24 @@
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44851</v>
+        <v>44858</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
@@ -5087,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -5096,18 +5096,18 @@
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44858</v>
+        <v>44865</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -5125,27 +5125,27 @@
         <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44865</v>
+        <v>44872</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -5169,15 +5169,15 @@
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44872</v>
+        <v>44879</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -5186,36 +5186,36 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44879</v>
+        <v>44886</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -5230,10 +5230,10 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>1</v>
@@ -5253,13 +5253,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5277,13 +5277,13 @@
         <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -5291,13 +5291,13 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -5309,13 +5309,13 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5329,31 +5329,31 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -5367,28 +5367,28 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44907</v>
+        <v>44914</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -5400,12 +5400,12 @@
         <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44914</v>
+        <v>44918</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5438,24 +5438,24 @@
         <v>1</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44918</v>
+        <v>44925</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -5476,33 +5476,33 @@
         <v>1</v>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44925</v>
+        <v>44935</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44935</v>
+        <v>44939</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -5528,16 +5528,16 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -5552,15 +5552,15 @@
         <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44939</v>
+        <v>44949</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -5569,33 +5569,33 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44949</v>
+        <v>44956</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -5613,36 +5613,36 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44956</v>
+        <v>44963</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -5651,33 +5651,33 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44963</v>
+        <v>44970</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -5689,10 +5689,10 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -5709,13 +5709,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44970</v>
+        <v>44974</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -5730,33 +5730,33 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44974</v>
+        <v>44984</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -5765,27 +5765,27 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44984</v>
+        <v>44991</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -5794,10 +5794,10 @@
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -5812,10 +5812,10 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -5832,22 +5832,22 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -5856,50 +5856,50 @@
         <v>1</v>
       </c>
       <c r="L142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44998</v>
+        <v>45005</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -5908,22 +5908,22 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -5932,42 +5932,42 @@
         <v>1</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45012</v>
+        <v>45019</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -5984,10 +5984,10 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -6040,18 +6040,18 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -6066,39 +6066,39 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
         <v>1</v>
@@ -6113,13 +6113,13 @@
         <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" t="n">
         <v>0</v>
@@ -6127,10 +6127,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45047</v>
+        <v>45054</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -6139,19 +6139,19 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -6165,10 +6165,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45054</v>
+        <v>45061</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -6177,25 +6177,25 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -6203,10 +6203,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45061</v>
+        <v>45068</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -6215,10 +6215,10 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -6236,12 +6236,12 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45068</v>
+        <v>45072</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -6250,16 +6250,16 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6268,10 +6268,10 @@
         <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153" t="n">
         <v>0</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45072</v>
+        <v>45082</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -6294,30 +6294,30 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45082</v>
+        <v>45089</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -6347,42 +6347,42 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -6420,18 +6420,18 @@
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -6458,18 +6458,18 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -6478,10 +6478,10 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -6496,21 +6496,21 @@
         <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -6522,10 +6522,10 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6534,10 +6534,10 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>1</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -6554,16 +6554,16 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
         <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>1</v>
@@ -6572,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" t="n">
         <v>1</v>
@@ -6583,10 +6583,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -6598,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6616,18 +6616,18 @@
         <v>0</v>
       </c>
       <c r="L162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -6636,30 +6636,30 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
         <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45145</v>
+        <v>45152</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -6697,113 +6697,113 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45152</v>
+        <v>45159</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45159</v>
+        <v>45166</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45166</v>
+        <v>45170</v>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
       </c>
       <c r="K167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>1</v>
@@ -6811,31 +6811,31 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45170</v>
+        <v>45180</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="n">
         <v>1</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45180</v>
+        <v>45187</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -6882,18 +6882,18 @@
         <v>0</v>
       </c>
       <c r="L169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45187</v>
+        <v>45194</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -6917,45 +6917,45 @@
         <v>1</v>
       </c>
       <c r="K170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45194</v>
+        <v>45201</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L171" t="n">
         <v>0</v>
@@ -6963,10 +6963,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45201</v>
+        <v>45208</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -6981,48 +6981,48 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
         <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45208</v>
+        <v>45215</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -7034,18 +7034,18 @@
         <v>1</v>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45215</v>
+        <v>45222</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -7057,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -7072,42 +7072,42 @@
         <v>1</v>
       </c>
       <c r="L174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45222</v>
+        <v>45229</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>1</v>
@@ -7115,16 +7115,16 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45229</v>
+        <v>45236</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -7136,16 +7136,16 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>0</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45236</v>
+        <v>45243</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -7183,33 +7183,33 @@
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45243</v>
+        <v>45250</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>1</v>
@@ -7218,10 +7218,10 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L178" t="n">
         <v>0</v>
@@ -7229,13 +7229,13 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45250</v>
+        <v>45257</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -7253,10 +7253,10 @@
         <v>1</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179" t="n">
         <v>1</v>
@@ -7267,13 +7267,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
@@ -7282,10 +7282,10 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
         <v>1</v>
@@ -7294,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>0</v>
@@ -7305,13 +7305,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45264</v>
+        <v>45271</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
@@ -7329,21 +7329,21 @@
         <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181" t="n">
         <v>1</v>
       </c>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45271</v>
+        <v>45278</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -7361,19 +7361,19 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L182" t="n">
         <v>0</v>
@@ -7381,7 +7381,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7414,42 +7414,42 @@
         <v>1</v>
       </c>
       <c r="L183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45282</v>
+        <v>45289</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>0</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45289</v>
+        <v>45299</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -7475,33 +7475,33 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185" t="n">
         <v>1</v>
       </c>
       <c r="L185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45299</v>
+        <v>45303</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45303</v>
+        <v>45313</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -7548,16 +7548,16 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
         <v>1</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45313</v>
+        <v>45320</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -7609,7 +7609,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45320</v>
+        <v>45327</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -7621,13 +7621,13 @@
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>1</v>
@@ -7636,10 +7636,10 @@
         <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>1</v>
@@ -7647,13 +7647,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45327</v>
+        <v>45334</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -7665,13 +7665,13 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
         <v>1</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -7694,16 +7694,16 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>1</v>
@@ -7715,30 +7715,30 @@
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7747,39 +7747,39 @@
         <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="n">
         <v>1</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>1</v>
@@ -7794,12 +7794,12 @@
         <v>1</v>
       </c>
       <c r="L193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45355</v>
+        <v>45362</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -7808,19 +7808,19 @@
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -7829,7 +7829,7 @@
         <v>1</v>
       </c>
       <c r="K194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>1</v>
@@ -7837,13 +7837,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45362</v>
+        <v>45369</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
         <v>1</v>
@@ -7852,10 +7852,10 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
@@ -7864,18 +7864,18 @@
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
         <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45369</v>
+        <v>45376</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -7890,22 +7890,22 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
         <v>1</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L196" t="n">
         <v>1</v>
@@ -7913,51 +7913,51 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45376</v>
+        <v>45383</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K197" t="n">
         <v>1</v>
       </c>
       <c r="L197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45383</v>
+        <v>45390</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -7966,16 +7966,16 @@
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="n">
         <v>1</v>
@@ -7984,12 +7984,12 @@
         <v>1</v>
       </c>
       <c r="L198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
@@ -8010,86 +8010,86 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
         <v>1</v>
       </c>
       <c r="L200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45404</v>
+        <v>45411</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -8112,10 +8112,10 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
         <v>1</v>
@@ -8130,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202" t="n">
         <v>1</v>
@@ -8141,7 +8141,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45418</v>
+        <v>45425</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -8171,59 +8171,59 @@
         <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45425</v>
+        <v>45432</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
         <v>1</v>
       </c>
       <c r="K204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45432</v>
+        <v>45436</v>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -8232,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8241,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
         <v>0</v>
@@ -8250,15 +8250,15 @@
         <v>1</v>
       </c>
       <c r="L205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45436</v>
+        <v>45446</v>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -8273,13 +8273,13 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
         <v>1</v>
@@ -8288,18 +8288,18 @@
         <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45446</v>
+        <v>45453</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
         <v>1</v>
@@ -8314,45 +8314,45 @@
         <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K207" t="n">
         <v>1</v>
       </c>
       <c r="L207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45453</v>
+        <v>45460</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -8361,7 +8361,7 @@
         <v>1</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L208" t="n">
         <v>1</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -8378,28 +8378,28 @@
         <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
         <v>1</v>
       </c>
       <c r="K209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>1</v>
@@ -8407,13 +8407,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45467</v>
+        <v>45474</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
@@ -8434,68 +8434,68 @@
         <v>1</v>
       </c>
       <c r="J210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K210" t="n">
         <v>1</v>
       </c>
       <c r="L210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45474</v>
+        <v>45481</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45481</v>
+        <v>45488</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
@@ -8504,16 +8504,16 @@
         <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>0</v>
@@ -8521,16 +8521,16 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45488</v>
+        <v>45495</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
@@ -8542,16 +8542,16 @@
         <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>0</v>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45495</v>
+        <v>45502</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -8568,16 +8568,16 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8586,10 +8586,10 @@
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214" t="n">
         <v>0</v>
@@ -8597,19 +8597,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" t="n">
         <v>1</v>
@@ -8618,48 +8618,48 @@
         <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="n">
         <v>1</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -8673,19 +8673,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
@@ -8697,10 +8697,10 @@
         <v>1</v>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K217" t="n">
         <v>1</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45523</v>
+        <v>45530</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -8720,13 +8720,13 @@
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8735,13 +8735,13 @@
         <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>0</v>
@@ -8749,10 +8749,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45530</v>
+        <v>45534</v>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -8764,13 +8764,13 @@
         <v>1</v>
       </c>
       <c r="F219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -8779,85 +8779,9 @@
         <v>0</v>
       </c>
       <c r="K219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
-        <v>45534</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0</v>
-      </c>
-      <c r="G220" t="n">
-        <v>1</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>1</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0</v>
-      </c>
-      <c r="L220" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
-        <v>45541</v>
-      </c>
-      <c r="B221" t="n">
-        <v>0</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0</v>
-      </c>
-      <c r="D221" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" t="n">
-        <v>1</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
-        <v>0</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0</v>
-      </c>
-      <c r="L221" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/classifier_test/broad_assets_target_test.xlsx
+++ b/data/classifier_test/broad_assets_target_test.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L219"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44018</v>
+        <v>43948</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44025</v>
+        <v>43955</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -550,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -579,25 +579,25 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44032</v>
+        <v>43962</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44039</v>
+        <v>43969</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -644,18 +644,18 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44046</v>
+        <v>43973</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44053</v>
+        <v>43983</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44060</v>
+        <v>43990</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44067</v>
+        <v>43997</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -784,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44074</v>
+        <v>44004</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -845,19 +845,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44078</v>
+        <v>44011</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -872,18 +872,18 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44088</v>
+        <v>44018</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44095</v>
+        <v>44025</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -945,33 +945,33 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44102</v>
+        <v>44032</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -992,12 +992,12 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44109</v>
+        <v>44039</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -1018,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44116</v>
+        <v>44046</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1050,22 +1050,22 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44123</v>
+        <v>44053</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1088,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1106,24 +1106,24 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44130</v>
+        <v>44060</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44137</v>
+        <v>44067</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -1164,22 +1164,22 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -1187,45 +1187,45 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44144</v>
+        <v>44074</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44151</v>
+        <v>44078</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -1243,54 +1243,54 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44158</v>
+        <v>44088</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44165</v>
+        <v>44095</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1310,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1325,59 +1325,59 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44172</v>
+        <v>44102</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44179</v>
+        <v>44109</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1415,31 +1415,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44186</v>
+        <v>44116</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1448,12 +1448,12 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44193</v>
+        <v>44123</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -1462,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -1483,21 +1483,21 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44200</v>
+        <v>44130</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1524,24 +1524,24 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44207</v>
+        <v>44137</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1550,13 +1550,13 @@
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44211</v>
+        <v>44144</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1600,12 +1600,12 @@
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44221</v>
+        <v>44151</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -1614,28 +1614,28 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44228</v>
+        <v>44158</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44235</v>
+        <v>44165</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44239</v>
+        <v>44172</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1775,51 +1775,51 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44256</v>
+        <v>44186</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -1828,30 +1828,30 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44263</v>
+        <v>44193</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44270</v>
+        <v>44200</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1886,45 +1886,45 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44277</v>
+        <v>44207</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -1942,12 +1942,12 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44284</v>
+        <v>44211</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1985,19 +1985,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44291</v>
+        <v>44221</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44298</v>
+        <v>44228</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -2032,13 +2032,13 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44305</v>
+        <v>44235</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -2070,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -2082,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44312</v>
+        <v>44239</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -2117,19 +2117,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
@@ -2137,45 +2137,45 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44319</v>
+        <v>44249</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44326</v>
+        <v>44256</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -2190,22 +2190,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44333</v>
+        <v>44263</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -2246,88 +2246,88 @@
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44340</v>
+        <v>44270</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44354</v>
+        <v>44284</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -2351,24 +2351,24 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44361</v>
+        <v>44291</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -2377,13 +2377,13 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2392,18 +2392,18 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44368</v>
+        <v>44298</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -2418,22 +2418,22 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44375</v>
+        <v>44305</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -2456,19 +2456,19 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
@@ -2479,19 +2479,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44379</v>
+        <v>44312</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2506,18 +2506,18 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44389</v>
+        <v>44319</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -2538,30 +2538,30 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>1</v>
@@ -2593,13 +2593,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44403</v>
+        <v>44333</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44410</v>
+        <v>44340</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2640,10 +2640,10 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2661,15 +2661,15 @@
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44417</v>
+        <v>44344</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2693,13 +2693,13 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44424</v>
+        <v>44354</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -2719,16 +2719,16 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2737,53 +2737,53 @@
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44431</v>
+        <v>44361</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44438</v>
+        <v>44368</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2792,28 +2792,28 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>1</v>
@@ -2821,19 +2821,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44442</v>
+        <v>44375</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
         <v>1</v>
@@ -2859,37 +2859,37 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44452</v>
+        <v>44379</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -2897,75 +2897,75 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44459</v>
+        <v>44389</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44466</v>
+        <v>44396</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -2973,25 +2973,25 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
@@ -3000,18 +3000,18 @@
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44480</v>
+        <v>44410</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -3038,18 +3038,18 @@
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44487</v>
+        <v>44417</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -3058,13 +3058,13 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44494</v>
+        <v>44424</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44501</v>
+        <v>44431</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -3134,16 +3134,16 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -3152,24 +3152,24 @@
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44508</v>
+        <v>44438</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3178,19 +3178,19 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44515</v>
+        <v>44442</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -3234,30 +3234,30 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44522</v>
+        <v>44452</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3277,25 +3277,25 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44529</v>
+        <v>44459</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -3310,18 +3310,18 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44536</v>
+        <v>44466</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -3333,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3353,45 +3353,45 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44543</v>
+        <v>44473</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44550</v>
+        <v>44480</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44557</v>
+        <v>44487</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -3456,71 +3456,71 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44564</v>
+        <v>44494</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44571</v>
+        <v>44501</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3532,18 +3532,18 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44575</v>
+        <v>44508</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -3552,22 +3552,22 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44585</v>
+        <v>44515</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -3590,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -3599,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -3614,33 +3614,33 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44592</v>
+        <v>44522</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3649,15 +3649,15 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44599</v>
+        <v>44529</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -3666,45 +3666,45 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44606</v>
+        <v>44536</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
@@ -3713,45 +3713,45 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44610</v>
+        <v>44543</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3766,39 +3766,39 @@
         <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44620</v>
+        <v>44550</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -3809,10 +3809,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44627</v>
+        <v>44557</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -3824,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -3847,13 +3847,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44634</v>
+        <v>44564</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -3862,22 +3862,22 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -3885,25 +3885,25 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44641</v>
+        <v>44571</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -3912,24 +3912,24 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44648</v>
+        <v>44575</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -3938,19 +3938,19 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -3961,13 +3961,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44655</v>
+        <v>44585</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -3979,27 +3979,27 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44662</v>
+        <v>44592</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -4014,19 +4014,19 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44669</v>
+        <v>44599</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -4046,16 +4046,16 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4067,15 +4067,15 @@
         <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44676</v>
+        <v>44606</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4096,42 +4096,42 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44683</v>
+        <v>44610</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4140,24 +4140,24 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44690</v>
+        <v>44620</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -4166,22 +4166,22 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
         <v>1</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44697</v>
+        <v>44627</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -4198,13 +4198,13 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -4213,13 +4213,13 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44704</v>
+        <v>44634</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -4236,10 +4236,10 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
@@ -4265,13 +4265,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44708</v>
+        <v>44641</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -4283,10 +4283,10 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -4298,50 +4298,50 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44718</v>
+        <v>44648</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44725</v>
+        <v>44655</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -4350,10 +4350,10 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
         <v>1</v>
@@ -4379,45 +4379,45 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44732</v>
+        <v>44662</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44739</v>
+        <v>44669</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -4429,13 +4429,13 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4455,13 +4455,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44743</v>
+        <v>44676</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -4488,33 +4488,33 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44753</v>
+        <v>44683</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44760</v>
+        <v>44690</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -4558,36 +4558,36 @@
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44767</v>
+        <v>44697</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -4602,12 +4602,12 @@
         <v>1</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44774</v>
+        <v>44704</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -4616,10 +4616,10 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -4628,30 +4628,30 @@
         <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44781</v>
+        <v>44708</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -4663,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44788</v>
+        <v>44718</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -4716,12 +4716,12 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44795</v>
+        <v>44725</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -4730,10 +4730,10 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4754,39 +4754,39 @@
         <v>1</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44802</v>
+        <v>44732</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -4797,60 +4797,60 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44806</v>
+        <v>44739</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44816</v>
+        <v>44743</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -4873,34 +4873,34 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44823</v>
+        <v>44753</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -4911,16 +4911,16 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44830</v>
+        <v>44760</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -4944,42 +4944,42 @@
         <v>1</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44837</v>
+        <v>44767</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" t="n">
         <v>1</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44844</v>
+        <v>44774</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -5008,16 +5008,16 @@
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44851</v>
+        <v>44781</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -5043,13 +5043,13 @@
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -5058,39 +5058,39 @@
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44858</v>
+        <v>44788</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44865</v>
+        <v>44795</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -5139,37 +5139,37 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44872</v>
+        <v>44802</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
@@ -5177,22 +5177,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44879</v>
+        <v>44806</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5201,33 +5201,33 @@
         <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44886</v>
+        <v>44816</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -5236,16 +5236,16 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -5253,37 +5253,37 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44893</v>
+        <v>44823</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -5291,28 +5291,28 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44900</v>
+        <v>44830</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -5324,12 +5324,12 @@
         <v>1</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44907</v>
+        <v>44837</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -5356,24 +5356,24 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44914</v>
+        <v>44844</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -5397,21 +5397,21 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44851</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -5420,36 +5420,36 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44925</v>
+        <v>44858</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -5473,33 +5473,33 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44935</v>
+        <v>44865</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>1</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44939</v>
+        <v>44872</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -5528,16 +5528,16 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -5552,24 +5552,24 @@
         <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44949</v>
+        <v>44879</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44956</v>
+        <v>44886</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -5604,28 +5604,28 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44963</v>
+        <v>44893</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -5642,16 +5642,16 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>1</v>
@@ -5663,15 +5663,15 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44970</v>
+        <v>44900</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -5680,28 +5680,28 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44974</v>
+        <v>44907</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5736,10 +5736,10 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -5747,16 +5747,16 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44984</v>
+        <v>44914</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -5771,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44991</v>
+        <v>44918</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -5794,10 +5794,10 @@
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -5818,12 +5818,12 @@
         <v>1</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44998</v>
+        <v>44925</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -5832,22 +5832,22 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45005</v>
+        <v>44935</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -5870,16 +5870,16 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>1</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" t="n">
         <v>1</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45012</v>
+        <v>44939</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -5908,16 +5908,16 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>1</v>
@@ -5937,19 +5937,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45019</v>
+        <v>44949</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -5967,15 +5967,15 @@
         <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45026</v>
+        <v>44956</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -5996,36 +5996,36 @@
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45033</v>
+        <v>44963</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -6037,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -6046,18 +6046,18 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45040</v>
+        <v>44970</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -6066,16 +6066,16 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -6089,19 +6089,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45047</v>
+        <v>44974</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -6110,16 +6110,16 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>0</v>
@@ -6127,60 +6127,60 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45054</v>
+        <v>44984</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45061</v>
+        <v>44991</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -6189,13 +6189,13 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45068</v>
+        <v>44998</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -6230,18 +6230,18 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45072</v>
+        <v>45005</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -6250,19 +6250,19 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -6271,15 +6271,15 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45082</v>
+        <v>45012</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -6288,10 +6288,10 @@
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
@@ -6309,30 +6309,30 @@
         <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45089</v>
+        <v>45019</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6341,13 +6341,13 @@
         <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L155" t="n">
         <v>1</v>
@@ -6355,72 +6355,72 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45096</v>
+        <v>45026</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45103</v>
+        <v>45033</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -6431,13 +6431,13 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45110</v>
+        <v>45040</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -6449,45 +6449,45 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45117</v>
+        <v>45047</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
@@ -6502,30 +6502,30 @@
         <v>1</v>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45124</v>
+        <v>45054</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6540,12 +6540,12 @@
         <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45131</v>
+        <v>45061</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -6575,21 +6575,21 @@
         <v>1</v>
       </c>
       <c r="K161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45138</v>
+        <v>45068</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -6616,42 +6616,42 @@
         <v>0</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45145</v>
+        <v>45072</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L163" t="n">
         <v>0</v>
@@ -6659,13 +6659,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45152</v>
+        <v>45082</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -6674,19 +6674,19 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45159</v>
+        <v>45089</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -6709,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -6724,10 +6724,10 @@
         <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>1</v>
@@ -6735,51 +6735,51 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45166</v>
+        <v>45096</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45170</v>
+        <v>45103</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -6788,16 +6788,16 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -6806,12 +6806,12 @@
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45180</v>
+        <v>45110</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="n">
         <v>1</v>
@@ -6849,51 +6849,51 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45187</v>
+        <v>45117</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45194</v>
+        <v>45124</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -6902,10 +6902,10 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6920,12 +6920,12 @@
         <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45201</v>
+        <v>45131</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -6937,39 +6937,39 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K171" t="n">
         <v>1</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45208</v>
+        <v>45138</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -6981,27 +6981,27 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
         <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45215</v>
+        <v>45145</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -7028,18 +7028,18 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45222</v>
+        <v>45152</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -7063,13 +7063,13 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
         <v>1</v>
       </c>
       <c r="K174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>0</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45229</v>
+        <v>45159</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -7104,10 +7104,10 @@
         <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175" t="n">
         <v>1</v>
@@ -7115,7 +7115,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45236</v>
+        <v>45166</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -7127,130 +7127,130 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45243</v>
+        <v>45170</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45250</v>
+        <v>45180</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178" t="n">
         <v>1</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45257</v>
+        <v>45187</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -7259,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="K179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>0</v>
@@ -7267,28 +7267,28 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45264</v>
+        <v>45194</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45271</v>
+        <v>45201</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -7314,13 +7314,13 @@
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7329,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -7338,12 +7338,12 @@
         <v>1</v>
       </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45278</v>
+        <v>45208</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -7352,13 +7352,13 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7370,42 +7370,42 @@
         <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45282</v>
+        <v>45215</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -7414,12 +7414,12 @@
         <v>1</v>
       </c>
       <c r="L183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45289</v>
+        <v>45222</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -7443,13 +7443,13 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
         <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184" t="n">
         <v>0</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45299</v>
+        <v>45229</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -7466,28 +7466,28 @@
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>1</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45303</v>
+        <v>45236</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -7504,19 +7504,19 @@
         <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45313</v>
+        <v>45243</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -7542,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -7551,7 +7551,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>1</v>
@@ -7560,48 +7560,48 @@
         <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" t="n">
         <v>1</v>
       </c>
       <c r="L187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45320</v>
+        <v>45250</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188" t="n">
         <v>0</v>
@@ -7609,19 +7609,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45327</v>
+        <v>45257</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -7633,45 +7633,45 @@
         <v>1</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45334</v>
+        <v>45264</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190" t="n">
         <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
         <v>1</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45338</v>
+        <v>45271</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -7697,13 +7697,13 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>1</v>
@@ -7718,12 +7718,12 @@
         <v>1</v>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45348</v>
+        <v>45278</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -7747,27 +7747,27 @@
         <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192" t="n">
         <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45355</v>
+        <v>45282</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
@@ -7794,18 +7794,18 @@
         <v>1</v>
       </c>
       <c r="L193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45362</v>
+        <v>45289</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -7832,12 +7832,12 @@
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45369</v>
+        <v>45299</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -7846,22 +7846,22 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
         <v>1</v>
@@ -7870,12 +7870,12 @@
         <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45376</v>
+        <v>45303</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -7893,54 +7893,54 @@
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
         <v>1</v>
       </c>
       <c r="K196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45383</v>
+        <v>45313</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197" t="n">
         <v>1</v>
@@ -7951,13 +7951,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45390</v>
+        <v>45320</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="K198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>0</v>
@@ -7989,31 +7989,31 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45397</v>
+        <v>45327</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
@@ -8022,27 +8022,27 @@
         <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45404</v>
+        <v>45334</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8054,18 +8054,18 @@
         <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45411</v>
+        <v>45338</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -8077,13 +8077,13 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201" t="n">
         <v>1</v>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L201" t="n">
         <v>0</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45418</v>
+        <v>45348</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -8115,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
         <v>1</v>
@@ -8127,7 +8127,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="n">
         <v>1</v>
@@ -8141,13 +8141,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45425</v>
+        <v>45355</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
         <v>1</v>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8179,10 +8179,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45432</v>
+        <v>45362</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -8212,18 +8212,18 @@
         <v>0</v>
       </c>
       <c r="L204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45436</v>
+        <v>45369</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -8232,19 +8232,19 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
         <v>1</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K205" t="n">
         <v>1</v>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45446</v>
+        <v>45376</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -8270,13 +8270,13 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -8285,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206" t="n">
         <v>1</v>
@@ -8293,25 +8293,25 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45453</v>
+        <v>45383</v>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K207" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45460</v>
+        <v>45390</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -8340,22 +8340,22 @@
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
         <v>1</v>
@@ -8364,21 +8364,21 @@
         <v>1</v>
       </c>
       <c r="L208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45467</v>
+        <v>45397</v>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
@@ -8390,24 +8390,24 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K209" t="n">
         <v>0</v>
       </c>
       <c r="L209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45474</v>
+        <v>45404</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -8416,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
@@ -8440,21 +8440,21 @@
         <v>1</v>
       </c>
       <c r="L210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45481</v>
+        <v>45411</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
         <v>1</v>
@@ -8475,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="K211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>0</v>
@@ -8483,16 +8483,16 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45488</v>
+        <v>45418</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
@@ -8504,30 +8504,30 @@
         <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
         <v>1</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45495</v>
+        <v>45425</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
         <v>1</v>
@@ -8542,36 +8542,36 @@
         <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45502</v>
+        <v>45432</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -8586,10 +8586,10 @@
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>0</v>
@@ -8597,22 +8597,22 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45509</v>
+        <v>45436</v>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8621,21 +8621,21 @@
         <v>1</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215" t="n">
         <v>1</v>
       </c>
       <c r="L215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45516</v>
+        <v>45446</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -8644,42 +8644,42 @@
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
       </c>
       <c r="J216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45523</v>
+        <v>45453</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
         <v>1</v>
@@ -8688,19 +8688,19 @@
         <v>1</v>
       </c>
       <c r="F217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K217" t="n">
         <v>1</v>
@@ -8711,22 +8711,22 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45530</v>
+        <v>45460</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8735,53 +8735,433 @@
         <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="n">
         <v>1</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>45534</v>
       </c>
-      <c r="B219" t="n">
-        <v>0</v>
-      </c>
-      <c r="C219" t="n">
-        <v>0</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0</v>
-      </c>
-      <c r="L219" t="n">
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
         <v>0</v>
       </c>
     </row>
